--- a/Real Estate/Texas Pacific Land.xlsx
+++ b/Real Estate/Texas Pacific Land.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Real Estate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B4FF5-D6EC-8647-A1FB-61152FC4C4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F2C77-8FCF-3849-BC51-435058B8E93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -970,18 +956,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,12 +990,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1039,6 +1007,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2535,10 +2521,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2739</v>
-    <v>1235.1449</v>
-    <v>1.8876999999999999</v>
-    <v>-38.79</v>
-    <v>-2.3999000000000003E-2</v>
+    <v>1325.33</v>
+    <v>1.8669</v>
+    <v>-5.81</v>
+    <v>-4.2979999999999997E-3</v>
+    <v>-0.02</v>
+    <v>-1.4859999999999998E-5</v>
     <v>USD</v>
     <v>Texas Pacific Land Corporation is a landowner in the state of Texas with approximately 874,000 acres of land in West Texas, with its ownership concentrated in the Permian Basin. The Company's segments include Land and Resource Management and Water Services and Operations. The Land and Resource Management segment encompasses the business of managing approximately 874,000 surface acres of land and its oil and gas royalty interests in West Texas. This segment consists primarily of oil and gas royalties, revenues from easements and commercial leases, and land and material sales. The Company’s Water Services and Operations segment encompasses the business of providing full-service water offerings to operators in the Permian Basin through Texas Pacific Water Resources LLC (TPWR). These full-service water offerings include, water sourcing, produced water gathering/treatment, infrastructure development, disposal solutions, water tracking, analytics and well testing services.</v>
     <v>99</v>
@@ -2546,24 +2534,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1700 Pacific Avenue, Suite 2900, DALLAS, TX, 75201 US</v>
-    <v>1604</v>
+    <v>1375</v>
     <v>Oil &amp; Gas</v>
     <v>Stock</v>
-    <v>45035.970570878904</v>
+    <v>45065.958333344533</v>
     <v>0</v>
-    <v>1571.75</v>
-    <v>12140112980</v>
+    <v>1326.02</v>
+    <v>10353830000</v>
     <v>TEXAS PACIFIC LAND CORPORATION</v>
     <v>TEXAS PACIFIC LAND CORPORATION</v>
-    <v>1604</v>
-    <v>27.3079</v>
-    <v>1616.35</v>
-    <v>1577.56</v>
-    <v>7695500</v>
+    <v>1373.21</v>
+    <v>23.8782</v>
+    <v>1351.83</v>
+    <v>1346.02</v>
+    <v>1346</v>
+    <v>7692180</v>
     <v>TPL</v>
     <v>TEXAS PACIFIC LAND CORPORATION (XNYS:TPL)</v>
-    <v>26218</v>
-    <v>57446</v>
+    <v>38245</v>
+    <v>28909</v>
     <v>2020</v>
   </rv>
   <rv s="2">
@@ -2595,6 +2584,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2615,6 +2606,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2631,7 +2623,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2642,13 +2634,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2714,13 +2709,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2765,6 +2766,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2772,6 +2776,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3133,10 +3140,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AV113" sqref="AV113"/>
+      <selection pane="bottomRight" activeCell="AP85" sqref="AP85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5355,15 +5362,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>18.189560697729473</v>
+        <v>15.513168579998862</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>27.197908827364337</v>
+        <v>23.196038193215372</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>27.164923518250003</v>
+        <v>23.16790630649983</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13488,10 +13495,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="33" t="s">
+      <c r="AT83" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AU83" s="34"/>
+      <c r="AU83" s="60"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13611,10 +13618,10 @@
       <c r="AM84" s="1">
         <v>-245000</v>
       </c>
-      <c r="AT84" s="35" t="s">
+      <c r="AT84" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="AU84" s="36"/>
+      <c r="AU84" s="62"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14112,10 +14119,10 @@
       <c r="AM88" s="1">
         <v>-19212000</v>
       </c>
-      <c r="AT88" s="37" t="s">
+      <c r="AT88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AU88" s="38">
+      <c r="AU88" s="34">
         <f>AU85/(AU86+AU87)</f>
         <v>0</v>
       </c>
@@ -14528,10 +14535,10 @@
       <c r="AM91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT91" s="37" t="s">
+      <c r="AT91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AU91" s="38">
+      <c r="AU91" s="34">
         <f>AU89/AU90</f>
         <v>0.21533255399003262</v>
       </c>
@@ -14654,10 +14661,10 @@
       <c r="AM92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT92" s="39" t="s">
+      <c r="AT92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AU92" s="40">
+      <c r="AU92" s="36">
         <f>AU88*(1-AU91)</f>
         <v>0</v>
       </c>
@@ -14780,10 +14787,10 @@
       <c r="AM93" s="1">
         <v>-2189000</v>
       </c>
-      <c r="AT93" s="35" t="s">
+      <c r="AT93" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="AU93" s="36"/>
+      <c r="AU93" s="62"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14906,7 +14913,7 @@
       <c r="AT94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AU94" s="41">
+      <c r="AU94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -15031,9 +15038,9 @@
       <c r="AT95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AU95" s="42" cm="1">
+      <c r="AU95" s="38" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>1.8876999999999999</v>
+        <v>1.8669</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15157,7 +15164,7 @@
       <c r="AT96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AU96" s="41">
+      <c r="AU96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15279,12 +15286,12 @@
       <c r="AM97" s="1">
         <v>-87765000</v>
       </c>
-      <c r="AT97" s="39" t="s">
+      <c r="AT97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AU97" s="40">
+      <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>0.12221548500000001</v>
+        <v>0.12132004500000002</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15405,10 +15412,10 @@
       <c r="AM98" s="1">
         <v>-247281000</v>
       </c>
-      <c r="AT98" s="35" t="s">
+      <c r="AT98" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AU98" s="36"/>
+      <c r="AU98" s="62"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15654,12 +15661,12 @@
       <c r="AM100" s="10">
         <v>-336808000</v>
       </c>
-      <c r="AT100" s="37" t="s">
+      <c r="AT100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AU100" s="38">
+      <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>1.6101046405111628E-4</v>
+        <v>1.887833708405495E-4</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15783,9 +15790,9 @@
       <c r="AT101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AU101" s="43" cm="1">
+      <c r="AU101" s="39" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>12140112980</v>
+        <v>10353830000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15906,12 +15913,12 @@
       <c r="AM102" s="10">
         <v>88940000</v>
       </c>
-      <c r="AT102" s="37" t="s">
+      <c r="AT102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AU102" s="38">
+      <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.99983898953594885</v>
+        <v>0.9998112166291595</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16032,12 +16039,12 @@
       <c r="AM103" s="1">
         <v>428242000</v>
       </c>
-      <c r="AT103" s="39" t="s">
+      <c r="AT103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AU103" s="44">
+      <c r="AU103" s="40">
         <f>AU99+AU101</f>
-        <v>12142067980</v>
+        <v>10355785000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16158,10 +16165,10 @@
       <c r="AM104" s="11">
         <v>517182000</v>
       </c>
-      <c r="AT104" s="35" t="s">
+      <c r="AT104" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AU104" s="36"/>
+      <c r="AU104" s="62"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16327,7 +16334,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>0.12219580702804593</v>
+        <v>0.12129714179295439</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16448,33 +16455,33 @@
       <c r="AM106" s="1">
         <v>446904000</v>
       </c>
-      <c r="AN106" s="45">
+      <c r="AN106" s="41">
         <f>AM106*(1+$AU$106)</f>
         <v>507537546.82155883</v>
       </c>
-      <c r="AO106" s="45">
+      <c r="AO106" s="41">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
         <v>576397529.29856527</v>
       </c>
-      <c r="AP106" s="45">
+      <c r="AP106" s="41">
         <f t="shared" si="9"/>
         <v>654600066.26524127</v>
       </c>
-      <c r="AQ106" s="45">
+      <c r="AQ106" s="41">
         <f t="shared" si="9"/>
         <v>743412705.59558749</v>
       </c>
-      <c r="AR106" s="45">
+      <c r="AR106" s="41">
         <f t="shared" si="9"/>
         <v>844274969.28638422</v>
       </c>
-      <c r="AS106" s="46" t="s">
+      <c r="AS106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AT106" s="47" t="s">
+      <c r="AT106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="AU106" s="48">
+      <c r="AU106" s="44">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>0.13567465679778851</v>
       </c>
@@ -16519,151 +16526,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="46"/>
-      <c r="AO107" s="46"/>
-      <c r="AP107" s="46"/>
-      <c r="AQ107" s="46"/>
-      <c r="AR107" s="49">
+      <c r="AN107" s="42"/>
+      <c r="AO107" s="42"/>
+      <c r="AP107" s="42"/>
+      <c r="AQ107" s="42"/>
+      <c r="AR107" s="45">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>8903489460.9068584</v>
-      </c>
-      <c r="AS107" s="50" t="s">
+        <v>8986578702.192173</v>
+      </c>
+      <c r="AS107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="AT107" s="51" t="s">
+      <c r="AT107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AU107" s="52">
+      <c r="AU107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="49">
+      <c r="AN108" s="45">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
         <v>507537546.82155883</v>
       </c>
-      <c r="AO108" s="49">
+      <c r="AO108" s="45">
         <f t="shared" si="10"/>
         <v>576397529.29856527</v>
       </c>
-      <c r="AP108" s="49">
+      <c r="AP108" s="45">
         <f t="shared" si="10"/>
         <v>654600066.26524127</v>
       </c>
-      <c r="AQ108" s="49">
+      <c r="AQ108" s="45">
         <f>AQ107+AQ106</f>
         <v>743412705.59558749</v>
       </c>
-      <c r="AR108" s="49">
+      <c r="AR108" s="45">
         <f>AR107+AR106</f>
-        <v>9747764430.193243</v>
-      </c>
-      <c r="AS108" s="50" t="s">
+        <v>9830853671.4785576</v>
+      </c>
+      <c r="AS108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AT108" s="53" t="s">
+      <c r="AT108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AU108" s="54">
+      <c r="AU108" s="50">
         <f>AU105</f>
-        <v>0.12219580702804593</v>
+        <v>0.12129714179295439</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="55" t="s">
+      <c r="AN109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AO109" s="56"/>
+      <c r="AO109" s="64"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="57" t="s">
+      <c r="AN110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AO110" s="43">
+      <c r="AO110" s="39">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>7319183455.7905407</v>
+        <v>7391757966.163784</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="57" t="s">
+      <c r="AN111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="AO111" s="43">
+      <c r="AO111" s="39">
         <f>AM40</f>
         <v>510834000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="57" t="s">
+      <c r="AN112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AO112" s="43">
+      <c r="AO112" s="39">
         <f>AU99</f>
         <v>1955000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="57" t="s">
+      <c r="AN113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AO113" s="43">
+      <c r="AO113" s="39">
         <f>AO110+AO111-AO112</f>
-        <v>7828062455.7905407</v>
+        <v>7900636966.163784</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="57" t="s">
+      <c r="AN114" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="AO114" s="58">
+      <c r="AO114" s="52">
         <f>AM34*(1+(AS16*5))</f>
         <v>7600348.5949122943</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="59" t="s">
+      <c r="AN115" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="AO115" s="60">
+      <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>1029.9609758729591</v>
+        <v>1039.5098155698415</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="57" t="s">
+      <c r="AN116" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="AO116" s="61" cm="1">
+      <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>1577.56</v>
+        <v>1346.02</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="62" t="s">
+      <c r="AN117" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="AO117" s="63">
+      <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>-0.34711771604695918</v>
+        <v>-0.22771592133115293</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="62" t="s">
+      <c r="AN118" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AO118" s="64" t="str">
+      <c r="AO118" s="58" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/TPL" display="ROIC.AI | TPL" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
